--- a/Question_Sets/Role-specific skills/Human Computer Interaction Design.xlsx
+++ b/Question_Sets/Role-specific skills/Human Computer Interaction Design.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are a UX designer for a leading fitness company tasked with designing a new smartwatch app. The app should allow users to track their daily workouts and monitor their progress towards their fitness goals. Your current challenge is to find an effective way to represent users' progress towards their goals.What is the best approach to implementing this feature?", 'ques_type': 2, 'options': ['Show a list detailing all the workouts the users have completed so far.', 'Show a list detailing all the workouts the users have yet to complete.', 'Present a progress bar that visually represents how close users are to achieving their fitness goals.', 'Present a progress bar that visually represents how far users are from achieving their fitness goals.'], 'score': 'Present a progress bar that visually represents how close users are to achieving their fitness goals.'}, {'title': 'You are a UX designer at a tech company developing a virtual reality (VR) training application for medical students. The goal is to create as realistic and immersive of an experience as possible to simulate precise surgical movements. You are tasked with determining the most effective interaction modality for this application.Which interaction modality should you select?', 'ques_type': 2, 'options': ['Touchscreen gestures', 'VR controller input', 'Gesture recognition ', 'Hand tracking in VR'], 'score': 'Hand tracking in VR'}, {'title': "As a UX designer for a food delivery app, you receive feedback from usability testing. A user struggled to recall the name of a previous dish order and found no way to retrieve this information within the app. Your goal is to enhance the app's usability based on this feedback.What should you do?", 'ques_type': 2, 'options': ['Introduce a "History" feature that allows users to review their past orders in a chronological list.', 'Introduce a pop-up asking users if they wish to review their previous orders each time they add an item to the cart.', "Introduce a “Recommendations” feature based on the user's past orders.", 'Introduce a "Favorites" section where users can save their preferred dishes for easy access.'], 'score': 'Introduce a "History" feature that allows users to review their past orders in a chronological list.'}, {'title': 'You are a UX designer at a vending machine manufacturing company. Your task is to create an efficient, user-friendly authentication system that allows employees to select and obtain a certain number of items for free. The company is willing to invest in this project without any budget constraints, prioritizing accessibility and overall user satisfaction.How should you approach the design of this authentication system?', 'ques_type': 2, 'options': ['Use a biometric identification system like fingerprint scanning or facial recognition.', 'Use a simple four-digit PIN-based system where each employee has a unique PIN.', "Use a system that requires scanning a barcode on the employee's ID badge.", 'Use a voice recognition system that identifies the employee by their voice.'], 'score': 'Use a biometric identification system like fingerprint scanning or facial recognition.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a UX designer for a leading fitness company tasked with designing a new smartwatch app. The app should allow users to track their daily workouts and monitor their progress towards their fitness goals. Your current challenge is to find an effective way to represent users' progress towards their goals.What is the best approach to implementing this feature?",
+        "ques_type": 2,
+        "options": [
+            "Show a list detailing all the workouts the users have completed so far.",
+            "Show a list detailing all the workouts the users have yet to complete.",
+            "Present a progress bar that visually represents how close users are to achieving their fitness goals.",
+            "Present a progress bar that visually represents how far users are from achieving their fitness goals."
+        ],
+        "score": "Present a progress bar that visually represents how close users are to achieving their fitness goals."
+    },
+    {
+        "title": "You are a UX designer at a tech company developing a virtual reality (VR) training application for medical students. The goal is to create as realistic and immersive of an experience as possible to simulate precise surgical movements. You are tasked with determining the most effective interaction modality for this application.Which interaction modality should you select?",
+        "ques_type": 2,
+        "options": [
+            "Touchscreen gestures",
+            "VR controller input",
+            "Gesture recognition ",
+            "Hand tracking in VR"
+        ],
+        "score": "Hand tracking in VR"
+    },
+    {
+        "title": "As a UX designer for a food delivery app, you receive feedback from usability testing. A user struggled to recall the name of a previous dish order and found no way to retrieve this information within the app. Your goal is to enhance the app's usability based on this feedback.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Introduce a \"History\" feature that allows users to review their past orders in a chronological list.",
+            "Introduce a pop-up asking users if they wish to review their previous orders each time they add an item to the cart.",
+            "Introduce a \u201cRecommendations\u201d feature based on the user's past orders.",
+            "Introduce a \"Favorites\" section where users can save their preferred dishes for easy access."
+        ],
+        "score": "Introduce a \"History\" feature that allows users to review their past orders in a chronological list."
+    },
+    {
+        "title": "You are a UX designer at a vending machine manufacturing company. Your task is to create an efficient, user-friendly authentication system that allows employees to select and obtain a certain number of items for free. The company is willing to invest in this project without any budget constraints, prioritizing accessibility and overall user satisfaction.How should you approach the design of this authentication system?",
+        "ques_type": 2,
+        "options": [
+            "Use a biometric identification system like fingerprint scanning or facial recognition.",
+            "Use a simple four-digit PIN-based system where each employee has a unique PIN.",
+            "Use a system that requires scanning a barcode on the employee's ID badge.",
+            "Use a voice recognition system that identifies the employee by their voice."
+        ],
+        "score": "Use a biometric identification system like fingerprint scanning or facial recognition."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
